--- a/nuon/instagram_posts_roanjane2.xlsx
+++ b/nuon/instagram_posts_roanjane2.xlsx
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3190,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -3331,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E48">
         <v>8</v>
